--- a/xls_references/Geochronology Wollaston_clean.xlsx
+++ b/xls_references/Geochronology Wollaston_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85a7a3c1b263fa40/Documents/02_Academic_files/02_USask_PhD/02_Writing/01_Proposal/05_geochronology/xls_references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1554" documentId="8_{4835C86F-BDE9-4C64-BC24-ECCC690438C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{977FF57D-C0E3-4679-8E97-CEC739E35276}"/>
+  <xr:revisionPtr revIDLastSave="1558" documentId="8_{4835C86F-BDE9-4C64-BC24-ECCC690438C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AECBAF4-D8A9-4255-BC86-477EE7BFC5DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{B7E92D48-8E07-41B0-890F-C47E4E90DEE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{B7E92D48-8E07-41B0-890F-C47E4E90DEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_table" sheetId="17" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{817560F5-7536-41E2-8B92-F3F64B1AD9AD}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{80C77A96-6B84-4A8C-AE27-8F11F8344A65}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{80C77A96-6B84-4A8C-AE27-8F11F8344A65}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{817560F5-7536-41E2-8B92-F3F64B1AD9AD}">
       <text>
         <r>
           <rPr>
@@ -333,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="1" shapeId="0" xr:uid="{592FEDEB-C4EF-47D3-A8D4-FC6B5914EFBA}">
+    <comment ref="F18" authorId="1" shapeId="0" xr:uid="{592FEDEB-C4EF-47D3-A8D4-FC6B5914EFBA}">
       <text>
         <r>
           <rPr>
@@ -381,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0" xr:uid="{B5DB5B72-A2DE-47BF-937E-7E581E5ADFA1}">
+    <comment ref="B58" authorId="0" shapeId="0" xr:uid="{B5DB5B72-A2DE-47BF-937E-7E581E5ADFA1}">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0" xr:uid="{0DCE0030-6CD9-454C-9B5D-32C3BF2B25E2}">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{0DCE0030-6CD9-454C-9B5D-32C3BF2B25E2}">
       <text>
         <r>
           <rPr>
@@ -429,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0" shapeId="0" xr:uid="{42B6C318-59DF-4D26-BA44-0A29D91479EE}">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{42B6C318-59DF-4D26-BA44-0A29D91479EE}">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{38E93B67-B596-4B08-BE05-C4A593619386}">
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{38E93B67-B596-4B08-BE05-C4A593619386}">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0" xr:uid="{A07599D0-3847-4B8B-8C07-4CDB857F968D}">
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{A07599D0-3847-4B8B-8C07-4CDB857F968D}">
       <text>
         <r>
           <rPr>
@@ -2622,6 +2622,11 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Close Lake"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R122">
     <sortCondition ref="L1:L137"/>
@@ -5045,7 +5050,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8581,9 +8586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F679CD3-3E70-4C69-9196-ED72BEF2FA0C}">
   <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD81"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15231,9 +15236,9 @@
   </sheetPr>
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q41" sqref="A41:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15316,15 +15321,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -15336,10 +15341,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>2689</v>
+        <v>2638</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>47</v>
@@ -15351,33 +15356,30 @@
         <v>121</v>
       </c>
       <c r="M2" s="1">
-        <v>58.077777777777783</v>
+        <v>58.13388888888889</v>
       </c>
       <c r="N2" s="1">
-        <v>58.077777777777783</v>
+        <v>58.13388888888889</v>
       </c>
       <c r="O2" s="1">
-        <v>586788</v>
+        <v>587482</v>
       </c>
       <c r="P2" s="1">
-        <v>6438323</v>
+        <v>6444603</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -15389,7 +15391,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -15404,16 +15406,16 @@
         <v>121</v>
       </c>
       <c r="M3" s="1">
-        <v>58.077777777777783</v>
+        <v>58.13388888888889</v>
       </c>
       <c r="N3" s="1">
-        <v>58.077777777777783</v>
+        <v>58.13388888888889</v>
       </c>
       <c r="O3" s="1">
-        <v>586788</v>
+        <v>587482</v>
       </c>
       <c r="P3" s="1">
-        <v>6438323</v>
+        <v>6444603</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>118</v>
@@ -15422,7 +15424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -15442,13 +15444,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>2566</v>
+        <v>2689</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>149</v>
@@ -15475,15 +15477,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -15492,16 +15494,16 @@
         <v>148</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>2638</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>184</v>
+        <v>1778</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>149</v>
@@ -15511,31 +15513,33 @@
         <v>121</v>
       </c>
       <c r="M5" s="1">
-        <v>58.13388888888889</v>
+        <v>58.077777777777783</v>
       </c>
       <c r="N5" s="1">
-        <v>58.13388888888889</v>
+        <v>58.077777777777783</v>
       </c>
       <c r="O5" s="1">
-        <v>587482</v>
+        <v>586788</v>
       </c>
       <c r="P5" s="1">
-        <v>6444603</v>
+        <v>6438323</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -15544,13 +15548,13 @@
         <v>148</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>1779</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
+        <v>2566</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
@@ -15562,16 +15566,16 @@
         <v>121</v>
       </c>
       <c r="M6" s="1">
-        <v>58.13388888888889</v>
+        <v>58.077777777777783</v>
       </c>
       <c r="N6" s="1">
-        <v>58.13388888888889</v>
+        <v>58.077777777777783</v>
       </c>
       <c r="O6" s="1">
-        <v>587482</v>
+        <v>586788</v>
       </c>
       <c r="P6" s="1">
-        <v>6444603</v>
+        <v>6438323</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>118</v>
@@ -15672,7 +15676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -15722,7 +15726,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -15772,7 +15776,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
@@ -15822,7 +15826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -15872,7 +15876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -15919,7 +15923,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -16019,15 +16023,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -16039,13 +16043,13 @@
         <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>1808</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4</v>
+        <v>2626</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>149</v>
@@ -16054,25 +16058,22 @@
         <v>103</v>
       </c>
       <c r="M16" s="1">
-        <v>-103.58527777777778</v>
+        <v>-103.60527777777777</v>
       </c>
       <c r="N16" s="1">
-        <v>58.147777777777776</v>
+        <v>58.151111111111106</v>
       </c>
       <c r="O16" s="1">
-        <v>583268</v>
+        <v>582082</v>
       </c>
       <c r="P16" s="1">
-        <v>6446044</v>
+        <v>6446396</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -16092,13 +16093,13 @@
         <v>8</v>
       </c>
       <c r="G17" s="1">
-        <v>2626</v>
+        <v>1837</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>149</v>
@@ -16122,15 +16123,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -16142,13 +16143,13 @@
         <v>8</v>
       </c>
       <c r="G18" s="1">
-        <v>1837</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>164</v>
+        <v>1808</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>149</v>
@@ -16157,22 +16158,25 @@
         <v>103</v>
       </c>
       <c r="M18" s="1">
-        <v>-103.60527777777777</v>
+        <v>-103.58527777777778</v>
       </c>
       <c r="N18" s="1">
-        <v>58.151111111111106</v>
+        <v>58.147777777777776</v>
       </c>
       <c r="O18" s="1">
-        <v>582082</v>
+        <v>583268</v>
       </c>
       <c r="P18" s="1">
-        <v>6446396</v>
+        <v>6446044</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -16228,7 +16232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -16284,7 +16288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>264</v>
       </c>
@@ -16375,7 +16379,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>239</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>244</v>
       </c>
@@ -16457,7 +16461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
@@ -16507,7 +16511,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -16560,7 +16564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -16613,7 +16617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -16666,15 +16670,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -16686,13 +16690,13 @@
         <v>8</v>
       </c>
       <c r="G29" s="1">
-        <v>1815</v>
+        <v>1719</v>
       </c>
       <c r="H29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>149</v>
@@ -16701,30 +16705,30 @@
         <v>97</v>
       </c>
       <c r="M29" s="1">
-        <v>58.176388888888887</v>
+        <v>-103.58527777777778</v>
       </c>
       <c r="N29" s="1">
-        <v>58.176388888888887</v>
+        <v>58.208333333333336</v>
       </c>
       <c r="O29" s="1">
-        <v>574567</v>
+        <v>583112</v>
       </c>
       <c r="P29" s="1">
-        <v>6449063</v>
+        <v>6452798</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -16733,13 +16737,13 @@
         <v>148</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="H30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>5</v>
@@ -16751,30 +16755,30 @@
         <v>97</v>
       </c>
       <c r="M30" s="1">
-        <v>58.176388888888887</v>
+        <v>-103.58527777777778</v>
       </c>
       <c r="N30" s="1">
-        <v>58.176388888888887</v>
+        <v>58.208333333333336</v>
       </c>
       <c r="O30" s="1">
-        <v>574567</v>
+        <v>583112</v>
       </c>
       <c r="P30" s="1">
-        <v>6449063</v>
+        <v>6452798</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -16783,16 +16787,16 @@
         <v>148</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G31" s="1">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="H31" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>149</v>
@@ -16801,22 +16805,22 @@
         <v>97</v>
       </c>
       <c r="M31" s="1">
-        <v>58.149722222222223</v>
+        <v>-103.59722222222221</v>
       </c>
       <c r="N31" s="1">
-        <v>58.149722222222223</v>
+        <v>58.205555555555556</v>
       </c>
       <c r="O31" s="1">
-        <v>573147</v>
+        <v>583144</v>
       </c>
       <c r="P31" s="1">
-        <v>6446066</v>
+        <v>6452482</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -16866,7 +16870,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -16916,15 +16920,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -16933,16 +16937,16 @@
         <v>148</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>149</v>
@@ -16951,30 +16955,30 @@
         <v>97</v>
       </c>
       <c r="M34" s="1">
-        <v>-103.59722222222221</v>
+        <v>58.149722222222223</v>
       </c>
       <c r="N34" s="1">
-        <v>58.205555555555556</v>
+        <v>58.149722222222223</v>
       </c>
       <c r="O34" s="1">
-        <v>583144</v>
+        <v>573147</v>
       </c>
       <c r="P34" s="1">
-        <v>6452482</v>
+        <v>6446066</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -16986,13 +16990,13 @@
         <v>8</v>
       </c>
       <c r="G35" s="1">
-        <v>1719</v>
+        <v>1815</v>
       </c>
       <c r="H35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>149</v>
@@ -17001,30 +17005,30 @@
         <v>97</v>
       </c>
       <c r="M35" s="1">
-        <v>-103.58527777777778</v>
+        <v>58.176388888888887</v>
       </c>
       <c r="N35" s="1">
-        <v>58.208333333333336</v>
+        <v>58.176388888888887</v>
       </c>
       <c r="O35" s="1">
-        <v>583112</v>
+        <v>574567</v>
       </c>
       <c r="P35" s="1">
-        <v>6452798</v>
+        <v>6449063</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -17033,13 +17037,13 @@
         <v>148</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G36" s="1">
-        <v>1782</v>
+        <v>1788</v>
       </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>5</v>
@@ -17051,22 +17055,22 @@
         <v>97</v>
       </c>
       <c r="M36" s="1">
-        <v>-103.58527777777778</v>
+        <v>58.176388888888887</v>
       </c>
       <c r="N36" s="1">
-        <v>58.208333333333336</v>
+        <v>58.176388888888887</v>
       </c>
       <c r="O36" s="1">
-        <v>583112</v>
+        <v>574567</v>
       </c>
       <c r="P36" s="1">
-        <v>6452798</v>
+        <v>6449063</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -17108,7 +17112,7 @@
       </c>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -17150,7 +17154,7 @@
       </c>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
@@ -17176,7 +17180,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
@@ -17202,7 +17206,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>191</v>
       </c>
@@ -17234,7 +17238,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -17284,7 +17288,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -17334,15 +17338,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -17354,7 +17358,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="H44" s="4">
         <v>4</v>
@@ -17369,30 +17373,30 @@
         <v>98</v>
       </c>
       <c r="M44" s="1">
-        <v>-106.15277777777779</v>
+        <v>-106.12138888888889</v>
       </c>
       <c r="N44" s="1">
-        <v>56.831388888888895</v>
+        <v>56.933055555555555</v>
       </c>
       <c r="O44" s="1">
-        <v>429777</v>
+        <v>431695</v>
       </c>
       <c r="P44" s="1">
-        <v>6299228</v>
+        <v>6308856</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -17401,16 +17405,16 @@
         <v>148</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
-        <v>2733</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>190</v>
+        <v>1796</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>149</v>
@@ -17419,30 +17423,30 @@
         <v>98</v>
       </c>
       <c r="M45" s="1">
-        <v>57.005833333333335</v>
+        <v>-106.13444444444445</v>
       </c>
       <c r="N45" s="1">
-        <v>57.005833333333335</v>
+        <v>56.933055555555555</v>
       </c>
       <c r="O45" s="1">
-        <v>435888</v>
+        <v>430929</v>
       </c>
       <c r="P45" s="1">
-        <v>6318556</v>
+        <v>6310520</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -17451,16 +17455,16 @@
         <v>148</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1789</v>
+      </c>
+      <c r="H46" s="4">
+        <v>4</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>149</v>
@@ -17469,30 +17473,30 @@
         <v>98</v>
       </c>
       <c r="M46" s="1">
-        <v>56.939166666666665</v>
+        <v>-106.15277777777779</v>
       </c>
       <c r="N46" s="1">
-        <v>56.939166666666665</v>
+        <v>56.831388888888895</v>
       </c>
       <c r="O46" s="1">
-        <v>431133</v>
+        <v>429777</v>
       </c>
       <c r="P46" s="1">
-        <v>6311188</v>
+        <v>6299228</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -17501,13 +17505,13 @@
         <v>148</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="H47" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>5</v>
@@ -17519,30 +17523,30 @@
         <v>98</v>
       </c>
       <c r="M47" s="1">
-        <v>56.939166666666665</v>
+        <v>-106.13</v>
       </c>
       <c r="N47" s="1">
-        <v>56.939166666666665</v>
+        <v>56.955833333333338</v>
       </c>
       <c r="O47" s="1">
-        <v>431133</v>
+        <v>431247</v>
       </c>
       <c r="P47" s="1">
-        <v>6311188</v>
+        <v>6313050</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -17554,7 +17558,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="1">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="H48" s="4">
         <v>4</v>
@@ -17569,22 +17573,22 @@
         <v>98</v>
       </c>
       <c r="M48" s="1">
-        <v>-106.12138888888889</v>
+        <v>-106.15916666666668</v>
       </c>
       <c r="N48" s="1">
-        <v>56.933055555555555</v>
+        <v>56.908055555555556</v>
       </c>
       <c r="O48" s="1">
-        <v>431695</v>
+        <v>429384</v>
       </c>
       <c r="P48" s="1">
-        <v>6308856</v>
+        <v>6307750</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -17637,7 +17641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -17690,15 +17694,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -17707,16 +17711,16 @@
         <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G51" s="1">
-        <v>1796</v>
-      </c>
-      <c r="H51" s="4">
-        <v>4</v>
+        <v>2733</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>149</v>
@@ -17725,130 +17729,134 @@
         <v>98</v>
       </c>
       <c r="M51" s="1">
-        <v>-106.13444444444445</v>
+        <v>57.005833333333335</v>
       </c>
       <c r="N51" s="1">
-        <v>56.933055555555555</v>
+        <v>57.005833333333335</v>
       </c>
       <c r="O51" s="1">
-        <v>430929</v>
+        <v>435888</v>
       </c>
       <c r="P51" s="1">
-        <v>6310520</v>
+        <v>6318556</v>
       </c>
       <c r="Q51" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1788</v>
+      </c>
+      <c r="H52" s="12">
+        <v>4</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" s="8">
+        <v>57.019722222222221</v>
+      </c>
+      <c r="N52" s="8">
+        <v>57.019722222222221</v>
+      </c>
+      <c r="O52" s="8">
+        <v>437354</v>
+      </c>
+      <c r="P52" s="8">
+        <v>6320071</v>
+      </c>
+      <c r="Q52" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="B53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G53" s="8">
         <v>1792</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H53" s="12">
         <v>4</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J53" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="K53" s="8"/>
+      <c r="L53" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="M52" s="1">
-        <v>-106.13</v>
-      </c>
-      <c r="N52" s="1">
-        <v>56.955833333333338</v>
-      </c>
-      <c r="O52" s="1">
-        <v>431247</v>
-      </c>
-      <c r="P52" s="1">
-        <v>6313050</v>
-      </c>
-      <c r="Q52" s="2" t="s">
+      <c r="M53" s="8">
+        <v>57.019722222222221</v>
+      </c>
+      <c r="N53" s="8">
+        <v>57.019722222222221</v>
+      </c>
+      <c r="O53" s="8">
+        <v>437354</v>
+      </c>
+      <c r="P53" s="8">
+        <v>6320071</v>
+      </c>
+      <c r="Q53" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2594</v>
-      </c>
-      <c r="H53" s="4">
-        <v>10</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" s="1">
-        <v>56.909722222222221</v>
-      </c>
-      <c r="N53" s="1">
-        <v>56.909722222222221</v>
-      </c>
-      <c r="O53" s="1">
-        <v>428830</v>
-      </c>
-      <c r="P53" s="1">
-        <v>6307959</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R53" s="11"/>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -17857,16 +17865,16 @@
         <v>148</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1806</v>
-      </c>
-      <c r="H54" s="4">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>149</v>
@@ -17875,33 +17883,30 @@
         <v>98</v>
       </c>
       <c r="M54" s="1">
-        <v>56.909722222222221</v>
+        <v>56.939166666666665</v>
       </c>
       <c r="N54" s="1">
-        <v>56.909722222222221</v>
+        <v>56.939166666666665</v>
       </c>
       <c r="O54" s="1">
-        <v>428830</v>
+        <v>431133</v>
       </c>
       <c r="P54" s="1">
-        <v>6307959</v>
+        <v>6311188</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -17913,7 +17918,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="1">
-        <v>1795</v>
+        <v>1814</v>
       </c>
       <c r="H55" s="4">
         <v>2</v>
@@ -17928,33 +17933,30 @@
         <v>98</v>
       </c>
       <c r="M55" s="1">
-        <v>56.909722222222221</v>
+        <v>56.939166666666665</v>
       </c>
       <c r="N55" s="1">
-        <v>56.909722222222221</v>
+        <v>56.939166666666665</v>
       </c>
       <c r="O55" s="1">
-        <v>428830</v>
+        <v>431133</v>
       </c>
       <c r="P55" s="1">
-        <v>6307959</v>
+        <v>6311188</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -17963,13 +17965,13 @@
         <v>148</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1">
-        <v>1797</v>
+        <v>1806</v>
       </c>
       <c r="H56" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>5</v>
@@ -17981,33 +17983,30 @@
         <v>98</v>
       </c>
       <c r="M56" s="1">
-        <v>56.909722222222221</v>
+        <v>56.928055555555552</v>
       </c>
       <c r="N56" s="1">
-        <v>56.909722222222221</v>
+        <v>56.928055555555552</v>
       </c>
       <c r="O56" s="1">
-        <v>428830</v>
+        <v>431724</v>
       </c>
       <c r="P56" s="1">
-        <v>6307959</v>
+        <v>6309940</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -18016,16 +18015,16 @@
         <v>148</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G57" s="1">
-        <v>1791</v>
-      </c>
-      <c r="H57" s="4">
-        <v>2</v>
+        <v>2316</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>149</v>
@@ -18034,33 +18033,30 @@
         <v>98</v>
       </c>
       <c r="M57" s="1">
-        <v>56.909722222222221</v>
+        <v>56.928055555555552</v>
       </c>
       <c r="N57" s="1">
-        <v>56.909722222222221</v>
+        <v>56.928055555555552</v>
       </c>
       <c r="O57" s="1">
-        <v>428830</v>
+        <v>431724</v>
       </c>
       <c r="P57" s="1">
-        <v>6307959</v>
+        <v>6309940</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R57" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -18069,16 +18065,16 @@
         <v>148</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G58" s="1">
-        <v>1803</v>
+        <v>2594</v>
       </c>
       <c r="H58" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>149</v>
@@ -18087,134 +18083,136 @@
         <v>98</v>
       </c>
       <c r="M58" s="1">
-        <v>-106.15916666666668</v>
+        <v>56.909722222222221</v>
       </c>
       <c r="N58" s="1">
-        <v>56.908055555555556</v>
+        <v>56.909722222222221</v>
       </c>
       <c r="O58" s="1">
-        <v>429384</v>
+        <v>428830</v>
       </c>
       <c r="P58" s="1">
-        <v>6307750</v>
+        <v>6307959</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="B59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="8">
-        <v>1788</v>
-      </c>
-      <c r="H59" s="12">
-        <v>4</v>
-      </c>
-      <c r="I59" s="13" t="s">
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1806</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M59" s="8">
-        <v>57.019722222222221</v>
-      </c>
-      <c r="N59" s="8">
-        <v>57.019722222222221</v>
-      </c>
-      <c r="O59" s="8">
-        <v>437354</v>
-      </c>
-      <c r="P59" s="8">
-        <v>6320071</v>
-      </c>
-      <c r="Q59" s="11" t="s">
+      <c r="M59" s="1">
+        <v>56.909722222222221</v>
+      </c>
+      <c r="N59" s="1">
+        <v>56.909722222222221</v>
+      </c>
+      <c r="O59" s="1">
+        <v>428830</v>
+      </c>
+      <c r="P59" s="1">
+        <v>6307959</v>
+      </c>
+      <c r="Q59" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="R59" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="B60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="8">
-        <v>1792</v>
-      </c>
-      <c r="H60" s="12">
-        <v>4</v>
-      </c>
-      <c r="I60" s="13" t="s">
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1795</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="13" t="s">
+      <c r="L60" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M60" s="8">
-        <v>57.019722222222221</v>
-      </c>
-      <c r="N60" s="8">
-        <v>57.019722222222221</v>
-      </c>
-      <c r="O60" s="8">
-        <v>437354</v>
-      </c>
-      <c r="P60" s="8">
-        <v>6320071</v>
-      </c>
-      <c r="Q60" s="11" t="s">
+      <c r="M60" s="1">
+        <v>56.909722222222221</v>
+      </c>
+      <c r="N60" s="1">
+        <v>56.909722222222221</v>
+      </c>
+      <c r="O60" s="1">
+        <v>428830</v>
+      </c>
+      <c r="P60" s="1">
+        <v>6307959</v>
+      </c>
+      <c r="Q60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R60" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -18223,13 +18221,13 @@
         <v>148</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G61" s="1">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="H61" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>5</v>
@@ -18241,30 +18239,33 @@
         <v>98</v>
       </c>
       <c r="M61" s="1">
-        <v>56.928055555555552</v>
+        <v>56.909722222222221</v>
       </c>
       <c r="N61" s="1">
-        <v>56.928055555555552</v>
+        <v>56.909722222222221</v>
       </c>
       <c r="O61" s="1">
-        <v>431724</v>
+        <v>428830</v>
       </c>
       <c r="P61" s="1">
-        <v>6309940</v>
+        <v>6307959</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R61" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -18273,16 +18274,16 @@
         <v>148</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G62" s="1">
-        <v>2316</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>19</v>
+        <v>1791</v>
+      </c>
+      <c r="H62" s="4">
+        <v>2</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>149</v>
@@ -18291,22 +18292,25 @@
         <v>98</v>
       </c>
       <c r="M62" s="1">
-        <v>56.928055555555552</v>
+        <v>56.909722222222221</v>
       </c>
       <c r="N62" s="1">
-        <v>56.928055555555552</v>
+        <v>56.909722222222221</v>
       </c>
       <c r="O62" s="1">
-        <v>431724</v>
+        <v>428830</v>
       </c>
       <c r="P62" s="1">
-        <v>6309940</v>
+        <v>6307959</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R62" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
         <v>28</v>
       </c>
@@ -18344,7 +18348,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>28</v>
       </c>
@@ -18379,7 +18383,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
@@ -18435,7 +18439,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>223</v>
       </c>
@@ -18481,7 +18485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>223</v>
       </c>
@@ -18527,7 +18531,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>223</v>
       </c>
@@ -18573,7 +18577,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>224</v>
       </c>
@@ -18619,7 +18623,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
@@ -18672,7 +18676,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -18725,7 +18729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>226</v>
       </c>
@@ -18771,7 +18775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>225</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>227</v>
       </c>
@@ -18863,7 +18867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>228</v>
       </c>
@@ -18909,7 +18913,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>48</v>
       </c>
@@ -18962,7 +18966,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>48</v>
       </c>
@@ -19015,7 +19019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
@@ -19047,7 +19051,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>48</v>
       </c>
@@ -19103,7 +19107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>48</v>
       </c>
@@ -19159,7 +19163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>48</v>
       </c>
@@ -19215,7 +19219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>48</v>
       </c>
@@ -19271,7 +19275,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -19359,7 +19363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>48</v>
       </c>
@@ -19415,7 +19419,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>48</v>
       </c>
@@ -19471,7 +19475,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -19527,7 +19531,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>48</v>
       </c>
@@ -19583,7 +19587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89"/>
       <c r="C89" t="s">
         <v>143</v>
@@ -19624,7 +19628,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90"/>
       <c r="C90" t="s">
         <v>143</v>
@@ -19665,7 +19669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91"/>
       <c r="C91" t="s">
         <v>144</v>
@@ -19706,7 +19710,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92"/>
       <c r="C92" t="s">
         <v>144</v>
@@ -19747,7 +19751,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -19800,7 +19804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>90</v>
       </c>
@@ -19853,7 +19857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>90</v>
       </c>
@@ -19903,7 +19907,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
@@ -19953,7 +19957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
@@ -20006,7 +20010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -20056,7 +20060,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>90</v>
       </c>
@@ -20106,7 +20110,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
@@ -20156,7 +20160,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>90</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
@@ -20262,7 +20266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>90</v>
       </c>
@@ -20315,7 +20319,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
@@ -20368,7 +20372,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>90</v>
       </c>
@@ -20421,7 +20425,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>90</v>
       </c>
@@ -20474,7 +20478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>90</v>
       </c>
@@ -20521,7 +20525,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>90</v>
       </c>
@@ -20568,15 +20572,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>3</v>
@@ -20585,51 +20589,51 @@
         <v>148</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G109" s="1">
-        <v>1800</v>
+        <v>1818</v>
       </c>
       <c r="H109" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M109" s="1">
-        <v>-105.46944444444445</v>
+        <v>-105.30722222222222</v>
       </c>
       <c r="N109" s="1">
-        <v>57.480277777777779</v>
+        <v>57.508333333333333</v>
       </c>
       <c r="O109" s="1">
-        <v>471825</v>
+        <v>481567</v>
       </c>
       <c r="P109" s="1">
-        <v>6370970</v>
+        <v>6374041</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>3</v>
@@ -20641,10 +20645,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="1">
-        <v>1806</v>
-      </c>
-      <c r="H110" s="4">
-        <v>2</v>
+        <v>1783</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>5</v>
@@ -20653,36 +20657,36 @@
         <v>104</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M110" s="1">
-        <v>-105.46944444444445</v>
+        <v>-105.30722222222222</v>
       </c>
       <c r="N110" s="1">
-        <v>57.480277777777779</v>
+        <v>57.508333333333333</v>
       </c>
       <c r="O110" s="1">
-        <v>471825</v>
+        <v>481567</v>
       </c>
       <c r="P110" s="1">
-        <v>6370970</v>
+        <v>6374041</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>3</v>
@@ -20694,10 +20698,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="1">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="H111" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>5</v>
@@ -20706,28 +20710,28 @@
         <v>104</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M111" s="1">
-        <v>-105.46944444444445</v>
+        <v>-105.30722222222222</v>
       </c>
       <c r="N111" s="1">
-        <v>57.480277777777779</v>
+        <v>57.508333333333333</v>
       </c>
       <c r="O111" s="1">
-        <v>471825</v>
+        <v>481567</v>
       </c>
       <c r="P111" s="1">
-        <v>6370970</v>
+        <v>6374041</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>48</v>
       </c>
@@ -20744,22 +20748,22 @@
         <v>148</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G112" s="1">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="H112" s="4">
         <v>1</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>115</v>
@@ -20780,15 +20784,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>3</v>
@@ -20800,10 +20804,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="1">
-        <v>1783</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>171</v>
+        <v>1800</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>5</v>
@@ -20812,36 +20816,36 @@
         <v>104</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M113" s="1">
-        <v>-105.30722222222222</v>
+        <v>-105.46944444444445</v>
       </c>
       <c r="N113" s="1">
-        <v>57.508333333333333</v>
+        <v>57.480277777777779</v>
       </c>
       <c r="O113" s="1">
-        <v>481567</v>
+        <v>471825</v>
       </c>
       <c r="P113" s="1">
-        <v>6374041</v>
+        <v>6370970</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>3</v>
@@ -20853,10 +20857,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="1">
-        <v>1797</v>
+        <v>1806</v>
       </c>
       <c r="H114" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>5</v>
@@ -20865,36 +20869,36 @@
         <v>104</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M114" s="1">
-        <v>-105.30722222222222</v>
+        <v>-105.46944444444445</v>
       </c>
       <c r="N114" s="1">
-        <v>57.508333333333333</v>
+        <v>57.480277777777779</v>
       </c>
       <c r="O114" s="1">
-        <v>481567</v>
+        <v>471825</v>
       </c>
       <c r="P114" s="1">
-        <v>6374041</v>
+        <v>6370970</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>3</v>
@@ -20906,10 +20910,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="1">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="H115" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>5</v>
@@ -20918,28 +20922,28 @@
         <v>104</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>115</v>
       </c>
       <c r="M115" s="1">
-        <v>-105.30722222222222</v>
+        <v>-105.46944444444445</v>
       </c>
       <c r="N115" s="1">
-        <v>57.508333333333333</v>
+        <v>57.480277777777779</v>
       </c>
       <c r="O115" s="1">
-        <v>481567</v>
+        <v>471825</v>
       </c>
       <c r="P115" s="1">
-        <v>6374041</v>
+        <v>6370970</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>48</v>
       </c>
@@ -20992,7 +20996,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>48</v>
       </c>
@@ -21045,7 +21049,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>48</v>
       </c>
@@ -21101,7 +21105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>48</v>
       </c>
@@ -21157,7 +21161,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>48</v>
       </c>
@@ -21210,7 +21214,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
@@ -21263,7 +21267,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
         <v>185</v>
       </c>
@@ -21416,8 +21420,8 @@
   <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79:XFD80"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
